--- a/server/translations_items.xlsx
+++ b/server/translations_items.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6600" uniqueCount="4699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="4699">
   <si>
     <t>ru</t>
   </si>
@@ -14236,7 +14236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -14254,6 +14254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14542,8 +14545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1622" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A1634" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1650" sqref="A1650:XFD1650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37641,7 +37644,7 @@
       </c>
     </row>
     <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1650" s="5" t="s">
+      <c r="A1650" s="8" t="s">
         <v>1570</v>
       </c>
       <c r="B1650" s="6" t="s">
@@ -37655,10 +37658,18 @@
       </c>
     </row>
     <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1651" s="5"/>
-      <c r="B1651" s="6"/>
-      <c r="C1651" s="6"/>
-      <c r="D1651" s="6"/>
+      <c r="A1651" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1651" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C1651" s="6" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D1651" s="6" t="s">
+        <v>4698</v>
+      </c>
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1652" s="5"/>

--- a/server/translations_items.xlsx
+++ b/server/translations_items.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1530" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="4699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6600" uniqueCount="4699">
   <si>
     <t>ru</t>
   </si>
@@ -14128,7 +14128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -14545,8 +14545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1634" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1650" sqref="A1650:XFD1650"/>
+    <sheetView tabSelected="1" topLeftCell="A1637" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1642" sqref="A1642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37658,18 +37658,10 @@
       </c>
     </row>
     <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1651" s="8" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B1651" s="6" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1651" s="6" t="s">
-        <v>3134</v>
-      </c>
-      <c r="D1651" s="6" t="s">
-        <v>4698</v>
-      </c>
+      <c r="A1651" s="8"/>
+      <c r="B1651" s="6"/>
+      <c r="C1651" s="6"/>
+      <c r="D1651" s="6"/>
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1652" s="5"/>
